--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_24_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_24_5.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_24_5.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_24_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-252551.3153777583</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.230442087713724e-10</v>
+        <v>1.186771392337168e-10</v>
       </c>
     </row>
     <row r="11">
@@ -22837,7 +22837,7 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>222.1153568062989</v>
+        <v>222.115356806299</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.064108801074326e-11</v>
+        <v>-8.276401786133645e-12</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.064108801074326e-11</v>
+        <v>2.955857780762016e-11</v>
       </c>
     </row>
     <row r="11">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-52818.20151235454</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-19190.60151235454</v>
       </c>
     </row>
   </sheetData>
